--- a/output/moodle/moodle-vuln-fiaf.xlsx
+++ b/output/moodle/moodle-vuln-fiaf.xlsx
@@ -571,7 +571,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>php:S2964</t>
+          <t>V-php:S2964</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -662,7 +662,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>javascript:S2819</t>
+          <t>V-javascript:S2819</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -753,7 +753,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>php:S2068</t>
+          <t>V-php:S2068</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -844,7 +844,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>php:S4830</t>
+          <t>V-php:S4830</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -935,7 +935,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>php:S2053</t>
+          <t>V-php:S2053</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1026,7 +1026,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>php:S4433</t>
+          <t>V-php:S4433</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1117,7 +1117,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>php:S4423</t>
+          <t>V-php:S4423</t>
         </is>
       </c>
       <c r="B8" t="n">
